--- a/data/pca/factorExposure/factorExposure_2015-05-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01982315329495022</v>
+        <v>0.01154230431050026</v>
       </c>
       <c r="C2">
-        <v>0.01912436081908464</v>
+        <v>-0.05160463365590919</v>
       </c>
       <c r="D2">
-        <v>0.1051687959004507</v>
+        <v>0.1269818507479366</v>
       </c>
       <c r="E2">
-        <v>-0.008072440099118996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02186138999941651</v>
+      </c>
+      <c r="F2">
+        <v>-0.02985342330716153</v>
+      </c>
+      <c r="G2">
+        <v>-0.1149694255884006</v>
+      </c>
+      <c r="H2">
+        <v>-0.07779666129515292</v>
+      </c>
+      <c r="I2">
+        <v>-0.112450897343524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.0008044879976091089</v>
+        <v>7.546052482403361e-05</v>
       </c>
       <c r="C3">
-        <v>0.001306168191518726</v>
+        <v>-0.001018913051306142</v>
       </c>
       <c r="D3">
-        <v>-0.006592233802461106</v>
+        <v>-0.002289288236424172</v>
       </c>
       <c r="E3">
-        <v>0.002206773225087506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.00598141291191807</v>
+      </c>
+      <c r="F3">
+        <v>0.003726352645880224</v>
+      </c>
+      <c r="G3">
+        <v>-0.006342225853815719</v>
+      </c>
+      <c r="H3">
+        <v>0.01047815406114037</v>
+      </c>
+      <c r="I3">
+        <v>0.001780759327825053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04413760885020258</v>
+        <v>0.01993965665481931</v>
       </c>
       <c r="C4">
-        <v>0.07253340222530957</v>
+        <v>-0.1051180596410417</v>
       </c>
       <c r="D4">
-        <v>0.1308193846687789</v>
+        <v>0.1303799648596697</v>
       </c>
       <c r="E4">
-        <v>-0.08210658127205836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.008567145011413639</v>
+      </c>
+      <c r="F4">
+        <v>-0.08919156462382442</v>
+      </c>
+      <c r="G4">
+        <v>-0.005574760206197505</v>
+      </c>
+      <c r="H4">
+        <v>-0.04096972557362945</v>
+      </c>
+      <c r="I4">
+        <v>0.07443616527228147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02148960796229338</v>
+        <v>0.02769900280196023</v>
       </c>
       <c r="C6">
-        <v>0.01247172766968567</v>
+        <v>-0.034129919442418</v>
       </c>
       <c r="D6">
-        <v>0.1366520862654153</v>
+        <v>0.1202527292448578</v>
       </c>
       <c r="E6">
-        <v>-0.03622917661651054</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.05791944550116749</v>
+      </c>
+      <c r="F6">
+        <v>-0.04729672639178177</v>
+      </c>
+      <c r="G6">
+        <v>-0.002761264160120407</v>
+      </c>
+      <c r="H6">
+        <v>-0.0459979243092762</v>
+      </c>
+      <c r="I6">
+        <v>0.02763387454795112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.002454237622732537</v>
+        <v>0.009925611284578584</v>
       </c>
       <c r="C7">
-        <v>0.02391483547787797</v>
+        <v>-0.036728700650731</v>
       </c>
       <c r="D7">
-        <v>0.1115349429439496</v>
+        <v>0.09763995483264969</v>
       </c>
       <c r="E7">
-        <v>-0.002991021135977089</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05257287397086332</v>
+      </c>
+      <c r="F7">
+        <v>-0.0111691728536815</v>
+      </c>
+      <c r="G7">
+        <v>0.009671741702940795</v>
+      </c>
+      <c r="H7">
+        <v>-0.08002576253018859</v>
+      </c>
+      <c r="I7">
+        <v>0.005186338779904414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.004653912967488195</v>
+        <v>-0.007722174519595506</v>
       </c>
       <c r="C8">
-        <v>0.02577458905843576</v>
+        <v>-0.03456055028304074</v>
       </c>
       <c r="D8">
-        <v>0.07707567021256923</v>
+        <v>0.07339964149633901</v>
       </c>
       <c r="E8">
-        <v>-0.02259605288883535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03823811246731827</v>
+      </c>
+      <c r="F8">
+        <v>-0.04806182647273134</v>
+      </c>
+      <c r="G8">
+        <v>-0.06287864674646838</v>
+      </c>
+      <c r="H8">
+        <v>-0.01039688231933441</v>
+      </c>
+      <c r="I8">
+        <v>-0.002819337239581922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03611186697000197</v>
+        <v>0.01403346337730845</v>
       </c>
       <c r="C9">
-        <v>0.06160276436036601</v>
+        <v>-0.08698854475211648</v>
       </c>
       <c r="D9">
-        <v>0.1315228898395019</v>
+        <v>0.113954532287889</v>
       </c>
       <c r="E9">
-        <v>-0.06555065290966597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01096426141000905</v>
+      </c>
+      <c r="F9">
+        <v>-0.06038251025049462</v>
+      </c>
+      <c r="G9">
+        <v>0.01298389943872008</v>
+      </c>
+      <c r="H9">
+        <v>-0.05622419056386283</v>
+      </c>
+      <c r="I9">
+        <v>0.0428452268511321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.171293806595637</v>
+        <v>0.2393909129031359</v>
       </c>
       <c r="C10">
-        <v>-0.1703133964953398</v>
+        <v>0.09610092624018231</v>
       </c>
       <c r="D10">
-        <v>0.005335460465886527</v>
+        <v>-0.002116138712191971</v>
       </c>
       <c r="E10">
-        <v>-0.0449332914684404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01059237426215907</v>
+      </c>
+      <c r="F10">
+        <v>-0.04424300587322204</v>
+      </c>
+      <c r="G10">
+        <v>0.0001081411352100731</v>
+      </c>
+      <c r="H10">
+        <v>0.04348935536222426</v>
+      </c>
+      <c r="I10">
+        <v>-0.05665069765172517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.0187551311164916</v>
+        <v>0.01087357316635791</v>
       </c>
       <c r="C11">
-        <v>0.04096143661677562</v>
+        <v>-0.05495731529228016</v>
       </c>
       <c r="D11">
-        <v>0.04801364727596959</v>
+        <v>0.04453982057369946</v>
       </c>
       <c r="E11">
-        <v>0.01593790646096399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01968461052593951</v>
+      </c>
+      <c r="F11">
+        <v>0.01165484143110663</v>
+      </c>
+      <c r="G11">
+        <v>0.006639032341186277</v>
+      </c>
+      <c r="H11">
+        <v>-0.04444147028055289</v>
+      </c>
+      <c r="I11">
+        <v>0.06064929859470064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01959078857803333</v>
+        <v>0.01095037495393996</v>
       </c>
       <c r="C12">
-        <v>0.03987372403029638</v>
+        <v>-0.04909961251043959</v>
       </c>
       <c r="D12">
-        <v>0.06091480445442332</v>
+        <v>0.04827573620845373</v>
       </c>
       <c r="E12">
-        <v>0.005384401514211453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01522679845253855</v>
+      </c>
+      <c r="F12">
+        <v>0.01445208675093991</v>
+      </c>
+      <c r="G12">
+        <v>0.0257051705037299</v>
+      </c>
+      <c r="H12">
+        <v>-0.06483494443405698</v>
+      </c>
+      <c r="I12">
+        <v>0.0344375260742735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.001766912262923628</v>
+        <v>-0.001938719567478259</v>
       </c>
       <c r="C13">
-        <v>0.0224083675240545</v>
+        <v>-0.04617810763217378</v>
       </c>
       <c r="D13">
-        <v>0.1431362179172393</v>
+        <v>0.15041865009502</v>
       </c>
       <c r="E13">
-        <v>-0.03513369265891276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03838317021348667</v>
+      </c>
+      <c r="F13">
+        <v>-0.03635856160176144</v>
+      </c>
+      <c r="G13">
+        <v>-0.01442119809278342</v>
+      </c>
+      <c r="H13">
+        <v>-0.07423387690582599</v>
+      </c>
+      <c r="I13">
+        <v>-0.09197718911154497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.005448953116100878</v>
+        <v>0.001702207579917998</v>
       </c>
       <c r="C14">
-        <v>0.01641399130138777</v>
+        <v>-0.03054690589183449</v>
       </c>
       <c r="D14">
-        <v>0.0979987044088932</v>
+        <v>0.1038524685462735</v>
       </c>
       <c r="E14">
-        <v>-0.01097909512959109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.04958242782069275</v>
+      </c>
+      <c r="F14">
+        <v>-0.03844340704185569</v>
+      </c>
+      <c r="G14">
+        <v>-0.01309105996613312</v>
+      </c>
+      <c r="H14">
+        <v>-0.128561955322605</v>
+      </c>
+      <c r="I14">
+        <v>0.003540367716052593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.00290386202276651</v>
+        <v>-0.001420074686101926</v>
       </c>
       <c r="C15">
-        <v>0.01059621462765118</v>
+        <v>-0.02511386746778456</v>
       </c>
       <c r="D15">
-        <v>0.03108463026787751</v>
+        <v>0.0589866912970324</v>
       </c>
       <c r="E15">
-        <v>0.004314752056142801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.009970527524145829</v>
+      </c>
+      <c r="F15">
+        <v>-0.007141754388262744</v>
+      </c>
+      <c r="G15">
+        <v>-0.019043538959227</v>
+      </c>
+      <c r="H15">
+        <v>-0.03329433685398257</v>
+      </c>
+      <c r="I15">
+        <v>0.02380932057005242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01829140154388873</v>
+        <v>0.01075556654718912</v>
       </c>
       <c r="C16">
-        <v>0.03678335981435715</v>
+        <v>-0.04855144719176557</v>
       </c>
       <c r="D16">
-        <v>0.05444073525300382</v>
+        <v>0.04485809221930413</v>
       </c>
       <c r="E16">
-        <v>0.00764502548683067</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02136333298784327</v>
+      </c>
+      <c r="F16">
+        <v>0.00754964198266083</v>
+      </c>
+      <c r="G16">
+        <v>0.01779285914885631</v>
+      </c>
+      <c r="H16">
+        <v>-0.04547866415540298</v>
+      </c>
+      <c r="I16">
+        <v>0.05614643709956639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.004332721565525442</v>
+        <v>0.0004844594783970097</v>
       </c>
       <c r="C19">
-        <v>0.01803889745643444</v>
+        <v>-0.0174076566108891</v>
       </c>
       <c r="D19">
-        <v>0.1025315380541571</v>
+        <v>0.06326019284043749</v>
       </c>
       <c r="E19">
-        <v>-0.04147714980466146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01091351891407727</v>
+      </c>
+      <c r="F19">
+        <v>-0.01566139575574384</v>
+      </c>
+      <c r="G19">
+        <v>-0.01221002870387953</v>
+      </c>
+      <c r="H19">
+        <v>-0.05906675874714513</v>
+      </c>
+      <c r="I19">
+        <v>-0.03222931405362396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.002319099908199507</v>
+        <v>0.005761102143584931</v>
       </c>
       <c r="C20">
-        <v>0.02373479197480114</v>
+        <v>-0.03986891304213475</v>
       </c>
       <c r="D20">
-        <v>0.08521947745706014</v>
+        <v>0.09269417529105405</v>
       </c>
       <c r="E20">
-        <v>-0.03384295484334354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02295749716932028</v>
+      </c>
+      <c r="F20">
+        <v>-0.02978586502779459</v>
+      </c>
+      <c r="G20">
+        <v>0.005469708519142092</v>
+      </c>
+      <c r="H20">
+        <v>-0.05418892403409243</v>
+      </c>
+      <c r="I20">
+        <v>0.04719732376735999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.005527121288392861</v>
+        <v>0.005478770263902149</v>
       </c>
       <c r="C21">
-        <v>0.02825848987752377</v>
+        <v>-0.04474152445297805</v>
       </c>
       <c r="D21">
-        <v>0.1619577399753977</v>
+        <v>0.1317659088632438</v>
       </c>
       <c r="E21">
-        <v>-0.07420527392764623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02982782910377664</v>
+      </c>
+      <c r="F21">
+        <v>-0.1001330405210214</v>
+      </c>
+      <c r="G21">
+        <v>-0.02183489589795972</v>
+      </c>
+      <c r="H21">
+        <v>-0.1947126612653463</v>
+      </c>
+      <c r="I21">
+        <v>-0.127148848213948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002455264708182932</v>
+        <v>-0.01145908181985624</v>
       </c>
       <c r="C22">
-        <v>0.06330977534142183</v>
+        <v>-0.08684637155835605</v>
       </c>
       <c r="D22">
-        <v>0.2458830209272825</v>
+        <v>0.252103036584319</v>
       </c>
       <c r="E22">
-        <v>0.02145534091295265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.05779277368904676</v>
+      </c>
+      <c r="F22">
+        <v>-0.002712796767812707</v>
+      </c>
+      <c r="G22">
+        <v>-0.389912330276027</v>
+      </c>
+      <c r="H22">
+        <v>0.405806841831119</v>
+      </c>
+      <c r="I22">
+        <v>0.06298095586467554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.002188404751384846</v>
+        <v>-0.008457402112104715</v>
       </c>
       <c r="C23">
-        <v>0.06381653717750387</v>
+        <v>-0.08830589133194235</v>
       </c>
       <c r="D23">
-        <v>0.2453958074858469</v>
+        <v>0.2560769774525915</v>
       </c>
       <c r="E23">
-        <v>0.02132667990753781</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05382571577005978</v>
+      </c>
+      <c r="F23">
+        <v>-0.005865364408340509</v>
+      </c>
+      <c r="G23">
+        <v>-0.3772890701212051</v>
+      </c>
+      <c r="H23">
+        <v>0.389587687434753</v>
+      </c>
+      <c r="I23">
+        <v>0.04695591857765575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.023333781852962</v>
+        <v>0.01040895271246005</v>
       </c>
       <c r="C24">
-        <v>0.05594870509261003</v>
+        <v>-0.06559794326127029</v>
       </c>
       <c r="D24">
-        <v>0.0674665831863597</v>
+        <v>0.05154353520859603</v>
       </c>
       <c r="E24">
-        <v>0.003382242816878489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02910739774559288</v>
+      </c>
+      <c r="F24">
+        <v>0.002917532637604784</v>
+      </c>
+      <c r="G24">
+        <v>0.009115687448038994</v>
+      </c>
+      <c r="H24">
+        <v>-0.07067307462304144</v>
+      </c>
+      <c r="I24">
+        <v>0.05109894704970503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02513788607334214</v>
+        <v>0.01457751844092235</v>
       </c>
       <c r="C25">
-        <v>0.04747788938246002</v>
+        <v>-0.06001054342542914</v>
       </c>
       <c r="D25">
-        <v>0.05884804158019432</v>
+        <v>0.04890832522218082</v>
       </c>
       <c r="E25">
-        <v>-0.0006451838950718076</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01362283106222134</v>
+      </c>
+      <c r="F25">
+        <v>0.004922202578633089</v>
+      </c>
+      <c r="G25">
+        <v>0.01137796242294319</v>
+      </c>
+      <c r="H25">
+        <v>-0.03754017264139074</v>
+      </c>
+      <c r="I25">
+        <v>0.04189980665339639</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.006650630429409331</v>
+        <v>0.01457066330689228</v>
       </c>
       <c r="C26">
-        <v>0.01566169886150031</v>
+        <v>-0.0266792791163461</v>
       </c>
       <c r="D26">
-        <v>0.08132552153875014</v>
+        <v>0.06785043271251585</v>
       </c>
       <c r="E26">
-        <v>-0.01915511915259051</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04120800553045989</v>
+      </c>
+      <c r="F26">
+        <v>-0.04464798606317478</v>
+      </c>
+      <c r="G26">
+        <v>-0.001089014220453215</v>
+      </c>
+      <c r="H26">
+        <v>-0.09660187607092079</v>
+      </c>
+      <c r="I26">
+        <v>-0.0223338349126597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2566086460757757</v>
+        <v>0.3181464943155025</v>
       </c>
       <c r="C28">
-        <v>-0.1998272288797297</v>
+        <v>0.09445094751286065</v>
       </c>
       <c r="D28">
-        <v>0.01942833868305761</v>
+        <v>-0.01381894755672671</v>
       </c>
       <c r="E28">
-        <v>-0.06058707576589376</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04984495423224371</v>
+      </c>
+      <c r="F28">
+        <v>-0.04609838032925434</v>
+      </c>
+      <c r="G28">
+        <v>-0.04137364900445301</v>
+      </c>
+      <c r="H28">
+        <v>0.008183911985549909</v>
+      </c>
+      <c r="I28">
+        <v>-0.07003239453238498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001860487354373132</v>
+        <v>0.0009490068886363896</v>
       </c>
       <c r="C29">
-        <v>0.02085580434702019</v>
+        <v>-0.03593471600484624</v>
       </c>
       <c r="D29">
-        <v>0.09682038887060411</v>
+        <v>0.1053456355921171</v>
       </c>
       <c r="E29">
-        <v>-0.01578803250078729</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05629111298234771</v>
+      </c>
+      <c r="F29">
+        <v>-0.04112051862614429</v>
+      </c>
+      <c r="G29">
+        <v>0.002136621153546466</v>
+      </c>
+      <c r="H29">
+        <v>-0.1318956478407742</v>
+      </c>
+      <c r="I29">
+        <v>0.01497396325559789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02137363170282322</v>
+        <v>0.01411416513620445</v>
       </c>
       <c r="C30">
-        <v>0.05884845065793501</v>
+        <v>-0.08646427455647582</v>
       </c>
       <c r="D30">
-        <v>0.1649628906304883</v>
+        <v>0.1491507718671048</v>
       </c>
       <c r="E30">
-        <v>-0.02389153350360695</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05239524906435222</v>
+      </c>
+      <c r="F30">
+        <v>-0.03146593830361641</v>
+      </c>
+      <c r="G30">
+        <v>-0.0303702098860066</v>
+      </c>
+      <c r="H30">
+        <v>-0.04619482967534305</v>
+      </c>
+      <c r="I30">
+        <v>0.07445809285814887</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.03768704416090426</v>
+        <v>0.01036774460575475</v>
       </c>
       <c r="C31">
-        <v>0.0847257946791483</v>
+        <v>-0.09283160248602546</v>
       </c>
       <c r="D31">
-        <v>0.06984128399469022</v>
+        <v>0.04208454441741968</v>
       </c>
       <c r="E31">
-        <v>-0.01231941765896734</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.0195071078338713</v>
+      </c>
+      <c r="F31">
+        <v>-0.01561764910010269</v>
+      </c>
+      <c r="G31">
+        <v>-2.28425055836057e-05</v>
+      </c>
+      <c r="H31">
+        <v>-0.04697857940633962</v>
+      </c>
+      <c r="I31">
+        <v>-0.02196707975408384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01746736176471507</v>
+        <v>0.01069075622907448</v>
       </c>
       <c r="C32">
-        <v>0.03197159008270522</v>
+        <v>-0.04826827097133432</v>
       </c>
       <c r="D32">
-        <v>0.1024741905778408</v>
+        <v>0.1105067236701495</v>
       </c>
       <c r="E32">
-        <v>-0.06575607516279652</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.002659339487309981</v>
+      </c>
+      <c r="F32">
+        <v>-0.05198623025935498</v>
+      </c>
+      <c r="G32">
+        <v>-0.007089981459012379</v>
+      </c>
+      <c r="H32">
+        <v>-0.05377167268576926</v>
+      </c>
+      <c r="I32">
+        <v>-0.07910269828543262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.008360569863959328</v>
+        <v>0.007299946812996905</v>
       </c>
       <c r="C33">
-        <v>0.04054814119823237</v>
+        <v>-0.05843047703829799</v>
       </c>
       <c r="D33">
-        <v>0.1389459134365156</v>
+        <v>0.1227313500442556</v>
       </c>
       <c r="E33">
-        <v>-0.03934149294925079</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.0265848924035036</v>
+      </c>
+      <c r="F33">
+        <v>-0.02953693535886203</v>
+      </c>
+      <c r="G33">
+        <v>-0.0008335382678540991</v>
+      </c>
+      <c r="H33">
+        <v>-0.06324333888288129</v>
+      </c>
+      <c r="I33">
+        <v>0.01222301576919929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02126541101769545</v>
+        <v>0.00801126547453555</v>
       </c>
       <c r="C34">
-        <v>0.05850208061215987</v>
+        <v>-0.06185337941616698</v>
       </c>
       <c r="D34">
-        <v>0.05040496892063859</v>
+        <v>0.03038241929556789</v>
       </c>
       <c r="E34">
-        <v>0.04570354296745327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02919376296298964</v>
+      </c>
+      <c r="F34">
+        <v>0.03682379846004103</v>
+      </c>
+      <c r="G34">
+        <v>0.0115524050801039</v>
+      </c>
+      <c r="H34">
+        <v>-0.05790042163842397</v>
+      </c>
+      <c r="I34">
+        <v>0.02773039400413542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002488838654516401</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01027730398700965</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03366591815520022</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.003366935113418018</v>
+      </c>
+      <c r="F35">
+        <v>-0.01880889893532431</v>
+      </c>
+      <c r="G35">
+        <v>0.000299071359750329</v>
+      </c>
+      <c r="H35">
+        <v>-0.04675222501631411</v>
+      </c>
+      <c r="I35">
+        <v>0.02697009326897788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.006021926640223124</v>
+        <v>0.01222675430839855</v>
       </c>
       <c r="C36">
-        <v>0.00599694239668266</v>
+        <v>-0.0203701489749942</v>
       </c>
       <c r="D36">
-        <v>0.08575812469581036</v>
+        <v>0.07524010404622622</v>
       </c>
       <c r="E36">
-        <v>-0.0432857816361282</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02649344373254649</v>
+      </c>
+      <c r="F36">
+        <v>-0.05005547729480346</v>
+      </c>
+      <c r="G36">
+        <v>-0.003750500816068421</v>
+      </c>
+      <c r="H36">
+        <v>-0.06489870608084956</v>
+      </c>
+      <c r="I36">
+        <v>-0.009143902434127479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.004599579211096656</v>
+        <v>0.01429249877897207</v>
       </c>
       <c r="C38">
-        <v>0.006512398801552488</v>
+        <v>-0.01878765180711773</v>
       </c>
       <c r="D38">
-        <v>0.08773240038665486</v>
+        <v>0.0838448778053056</v>
       </c>
       <c r="E38">
-        <v>-0.009980414340265276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002122375585345189</v>
+      </c>
+      <c r="F38">
+        <v>-0.001459171594350395</v>
+      </c>
+      <c r="G38">
+        <v>-0.02414483227947912</v>
+      </c>
+      <c r="H38">
+        <v>-0.06341037160231318</v>
+      </c>
+      <c r="I38">
+        <v>0.01247753000372973</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01513752465272035</v>
+        <v>0.004050098703705445</v>
       </c>
       <c r="C39">
-        <v>0.05654037688552346</v>
+        <v>-0.07515486679362669</v>
       </c>
       <c r="D39">
-        <v>0.1134858989286553</v>
+        <v>0.09610876350020382</v>
       </c>
       <c r="E39">
-        <v>0.0150746634648084</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05287457725321065</v>
+      </c>
+      <c r="F39">
+        <v>0.002551132576490143</v>
+      </c>
+      <c r="G39">
+        <v>0.01004764239044992</v>
+      </c>
+      <c r="H39">
+        <v>-0.09675806776286187</v>
+      </c>
+      <c r="I39">
+        <v>0.06505946226668716</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01062840200268408</v>
+        <v>0.0134462248813537</v>
       </c>
       <c r="C40">
-        <v>0.01735578568418921</v>
+        <v>-0.03084742440592086</v>
       </c>
       <c r="D40">
-        <v>0.1222797012860206</v>
+        <v>0.1019026302481048</v>
       </c>
       <c r="E40">
-        <v>0.01928574753392658</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.049292882069157</v>
+      </c>
+      <c r="F40">
+        <v>0.02168098609180433</v>
+      </c>
+      <c r="G40">
+        <v>-0.04433439100008892</v>
+      </c>
+      <c r="H40">
+        <v>-0.08968689260751649</v>
+      </c>
+      <c r="I40">
+        <v>-0.08925467219774762</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.00989445573212167</v>
+        <v>0.01688353139335291</v>
       </c>
       <c r="C41">
-        <v>0.00327782559037708</v>
+        <v>-0.01660262603565346</v>
       </c>
       <c r="D41">
-        <v>0.04602808410684421</v>
+        <v>0.04668752077189366</v>
       </c>
       <c r="E41">
-        <v>-0.03207167986154782</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.008573945846090357</v>
+      </c>
+      <c r="F41">
+        <v>-0.0245694015030343</v>
+      </c>
+      <c r="G41">
+        <v>-0.005050352624394075</v>
+      </c>
+      <c r="H41">
+        <v>-0.0454988636146678</v>
+      </c>
+      <c r="I41">
+        <v>0.00224412107062075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.003201226219931471</v>
+        <v>0.01041314541427304</v>
       </c>
       <c r="C43">
-        <v>0.003971709508766893</v>
+        <v>-0.01384959698713826</v>
       </c>
       <c r="D43">
-        <v>0.05554970870454649</v>
+        <v>0.05143041209897226</v>
       </c>
       <c r="E43">
-        <v>-0.02105351674918598</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.008266725470903001</v>
+      </c>
+      <c r="F43">
+        <v>-0.02012240475615522</v>
+      </c>
+      <c r="G43">
+        <v>-0.007824914724500554</v>
+      </c>
+      <c r="H43">
+        <v>-0.05669841815531167</v>
+      </c>
+      <c r="I43">
+        <v>0.02175460638966482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01607901918354186</v>
+        <v>0.01213047936259381</v>
       </c>
       <c r="C44">
-        <v>0.02250733454529706</v>
+        <v>-0.0464410946724807</v>
       </c>
       <c r="D44">
-        <v>0.1079993338675472</v>
+        <v>0.1108746005872094</v>
       </c>
       <c r="E44">
-        <v>-0.04875238148421688</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03843188281982168</v>
+      </c>
+      <c r="F44">
+        <v>-0.03759753137258379</v>
+      </c>
+      <c r="G44">
+        <v>-0.02786580261428765</v>
+      </c>
+      <c r="H44">
+        <v>-0.05281973129171766</v>
+      </c>
+      <c r="I44">
+        <v>0.05219947195293829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.005555589060007336</v>
+        <v>0.0004046431108305377</v>
       </c>
       <c r="C46">
-        <v>0.02894397897909441</v>
+        <v>-0.04095542693389334</v>
       </c>
       <c r="D46">
-        <v>0.09121467389625317</v>
+        <v>0.076773347637276</v>
       </c>
       <c r="E46">
-        <v>-0.01680105276668331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04280144475635104</v>
+      </c>
+      <c r="F46">
+        <v>-0.0355419602473583</v>
+      </c>
+      <c r="G46">
+        <v>-0.01267782916548439</v>
+      </c>
+      <c r="H46">
+        <v>-0.1333821929039266</v>
+      </c>
+      <c r="I46">
+        <v>0.03506479547114341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.07976120224947887</v>
+        <v>0.03549655380396987</v>
       </c>
       <c r="C47">
-        <v>0.1077118285478389</v>
+        <v>-0.1261742596205207</v>
       </c>
       <c r="D47">
-        <v>0.05837368509036145</v>
+        <v>0.02414554835270206</v>
       </c>
       <c r="E47">
-        <v>-0.02820740866779632</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.007484187814601741</v>
+      </c>
+      <c r="F47">
+        <v>0.002860638407055772</v>
+      </c>
+      <c r="G47">
+        <v>0.04223222594445692</v>
+      </c>
+      <c r="H47">
+        <v>-0.05240241998993127</v>
+      </c>
+      <c r="I47">
+        <v>-0.05925945230754649</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.00698373434353514</v>
+        <v>0.01354675087194208</v>
       </c>
       <c r="C48">
-        <v>0.01534299431080944</v>
+        <v>-0.03058571312126139</v>
       </c>
       <c r="D48">
-        <v>0.0892652675959039</v>
+        <v>0.08083286572198387</v>
       </c>
       <c r="E48">
-        <v>-0.05521313651933651</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.01902600803902165</v>
+      </c>
+      <c r="F48">
+        <v>-0.06046128706269215</v>
+      </c>
+      <c r="G48">
+        <v>-0.009424770056944698</v>
+      </c>
+      <c r="H48">
+        <v>-0.1038348057556334</v>
+      </c>
+      <c r="I48">
+        <v>0.008953175876512306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03541449390694679</v>
+        <v>0.01552400114222999</v>
       </c>
       <c r="C50">
-        <v>0.05980869979423985</v>
+        <v>-0.07516236505392036</v>
       </c>
       <c r="D50">
-        <v>0.06310434082952492</v>
+        <v>0.04852685113134781</v>
       </c>
       <c r="E50">
-        <v>-0.008236246302565994</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01108986562762936</v>
+      </c>
+      <c r="F50">
+        <v>-0.01032139874118673</v>
+      </c>
+      <c r="G50">
+        <v>-0.01356717614482079</v>
+      </c>
+      <c r="H50">
+        <v>-0.03740351008405753</v>
+      </c>
+      <c r="I50">
+        <v>-0.03529746401952081</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.002453929088497515</v>
+        <v>-0.0001645158480576744</v>
       </c>
       <c r="C51">
-        <v>0.004138305417041539</v>
+        <v>-0.01685449223883866</v>
       </c>
       <c r="D51">
-        <v>0.05858698022649968</v>
+        <v>0.05960110523922248</v>
       </c>
       <c r="E51">
-        <v>-0.001897361162913533</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03861875792458026</v>
+      </c>
+      <c r="F51">
+        <v>-0.03960901502035875</v>
+      </c>
+      <c r="G51">
+        <v>-0.01842990987498778</v>
+      </c>
+      <c r="H51">
+        <v>-0.04914963688735863</v>
+      </c>
+      <c r="I51">
+        <v>-0.01566773109260546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1081669556293879</v>
+        <v>0.05642293102825914</v>
       </c>
       <c r="C53">
-        <v>0.1244349416997663</v>
+        <v>-0.1559751727302815</v>
       </c>
       <c r="D53">
-        <v>0.01235143361487163</v>
+        <v>-0.01983292109428707</v>
       </c>
       <c r="E53">
-        <v>-0.05998513335762114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.0283509518417441</v>
+      </c>
+      <c r="F53">
+        <v>-0.04998633345064008</v>
+      </c>
+      <c r="G53">
+        <v>-0.001725451311875251</v>
+      </c>
+      <c r="H53">
+        <v>-0.007355602338027918</v>
+      </c>
+      <c r="I53">
+        <v>-0.02753748489498077</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01134499935783894</v>
+        <v>0.009770771447478075</v>
       </c>
       <c r="C54">
-        <v>0.02057200960090953</v>
+        <v>-0.03733599848582568</v>
       </c>
       <c r="D54">
-        <v>0.09241090038190163</v>
+        <v>0.0780621177804213</v>
       </c>
       <c r="E54">
-        <v>-0.00397030236543985</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01478479170373988</v>
+      </c>
+      <c r="F54">
+        <v>-0.004591157455982757</v>
+      </c>
+      <c r="G54">
+        <v>-0.02599224821099227</v>
+      </c>
+      <c r="H54">
+        <v>-0.08025976976619358</v>
+      </c>
+      <c r="I54">
+        <v>0.02930025830324267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09526884955120066</v>
+        <v>0.04335823855072245</v>
       </c>
       <c r="C55">
-        <v>0.1058599284905193</v>
+        <v>-0.1301565374392573</v>
       </c>
       <c r="D55">
-        <v>0.006029703355842452</v>
+        <v>-0.03121245099259174</v>
       </c>
       <c r="E55">
-        <v>-0.01125371593656074</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.004221109930793378</v>
+      </c>
+      <c r="F55">
+        <v>-0.01409065839190106</v>
+      </c>
+      <c r="G55">
+        <v>-0.005075367241919709</v>
+      </c>
+      <c r="H55">
+        <v>-0.01629568515150091</v>
+      </c>
+      <c r="I55">
+        <v>-0.04574515067281826</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1325593536632866</v>
+        <v>0.05779136135263776</v>
       </c>
       <c r="C56">
-        <v>0.1423859262163004</v>
+        <v>-0.188007701782947</v>
       </c>
       <c r="D56">
-        <v>0.001698702330347108</v>
+        <v>-0.03212133164412137</v>
       </c>
       <c r="E56">
-        <v>-0.01083217247496125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.02987930465657885</v>
+      </c>
+      <c r="F56">
+        <v>-0.01702222387818401</v>
+      </c>
+      <c r="G56">
+        <v>-0.0560188832726159</v>
+      </c>
+      <c r="H56">
+        <v>-0.01089244742333253</v>
+      </c>
+      <c r="I56">
+        <v>-0.05933965782415324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.009404462263613468</v>
+        <v>0.007354780224348094</v>
       </c>
       <c r="C58">
-        <v>0.01179786371616697</v>
+        <v>-0.05293082019300068</v>
       </c>
       <c r="D58">
-        <v>0.2149795668558604</v>
+        <v>0.2707646745170967</v>
       </c>
       <c r="E58">
-        <v>-0.08051393983179889</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.01216265134404175</v>
+      </c>
+      <c r="F58">
+        <v>-0.1056868012088316</v>
+      </c>
+      <c r="G58">
+        <v>-0.1362435539873046</v>
+      </c>
+      <c r="H58">
+        <v>0.09153544627423221</v>
+      </c>
+      <c r="I58">
+        <v>0.04115855358918147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1800410519961994</v>
+        <v>0.2525896296327685</v>
       </c>
       <c r="C59">
-        <v>-0.1479478796652765</v>
+        <v>0.06589022287107865</v>
       </c>
       <c r="D59">
-        <v>0.04445164698201352</v>
+        <v>0.05409360316520137</v>
       </c>
       <c r="E59">
-        <v>-0.03524424063114256</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02182053935148048</v>
+      </c>
+      <c r="F59">
+        <v>-0.02383439848887441</v>
+      </c>
+      <c r="G59">
+        <v>-0.01250955884020802</v>
+      </c>
+      <c r="H59">
+        <v>0.00487606213346751</v>
+      </c>
+      <c r="I59">
+        <v>-0.07001173353935156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1855021260950691</v>
+        <v>0.1500987725799869</v>
       </c>
       <c r="C60">
-        <v>0.1002476768348248</v>
+        <v>-0.1711608322374515</v>
       </c>
       <c r="D60">
-        <v>0.2083770524330396</v>
+        <v>0.0927541404965702</v>
       </c>
       <c r="E60">
-        <v>0.1621293950736279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1679648255858822</v>
+      </c>
+      <c r="F60">
+        <v>0.222929959954535</v>
+      </c>
+      <c r="G60">
+        <v>0.2261292708328838</v>
+      </c>
+      <c r="H60">
+        <v>0.2216964984643373</v>
+      </c>
+      <c r="I60">
+        <v>-0.07434276406498201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02488451933145808</v>
+        <v>0.01150634071510144</v>
       </c>
       <c r="C61">
-        <v>0.05329917434464744</v>
+        <v>-0.0734871705361943</v>
       </c>
       <c r="D61">
-        <v>0.09972916510625132</v>
+        <v>0.07927947342912604</v>
       </c>
       <c r="E61">
-        <v>0.006468656372409156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03636786779280703</v>
+      </c>
+      <c r="F61">
+        <v>0.01194460670254585</v>
+      </c>
+      <c r="G61">
+        <v>0.0278200330299928</v>
+      </c>
+      <c r="H61">
+        <v>-0.08777039356618822</v>
+      </c>
+      <c r="I61">
+        <v>0.03353595143978454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.006466656952788387</v>
+        <v>0.008285954741386638</v>
       </c>
       <c r="C63">
-        <v>0.0251475686155386</v>
+        <v>-0.03580272594905717</v>
       </c>
       <c r="D63">
-        <v>0.09404216519688961</v>
+        <v>0.06848940733499384</v>
       </c>
       <c r="E63">
-        <v>-0.01470326780719422</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05585975201622255</v>
+      </c>
+      <c r="F63">
+        <v>-0.02839947029257748</v>
+      </c>
+      <c r="G63">
+        <v>-0.008710556385518814</v>
+      </c>
+      <c r="H63">
+        <v>-0.06531821641055902</v>
+      </c>
+      <c r="I63">
+        <v>0.03300282596172642</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05578049810600077</v>
+        <v>0.02020796276943503</v>
       </c>
       <c r="C64">
-        <v>0.08326277588294455</v>
+        <v>-0.1050092797869019</v>
       </c>
       <c r="D64">
-        <v>0.03736808159305621</v>
+        <v>0.02018991418188975</v>
       </c>
       <c r="E64">
-        <v>-0.01480716083833734</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02823142022140441</v>
+      </c>
+      <c r="F64">
+        <v>-0.02054622803955656</v>
+      </c>
+      <c r="G64">
+        <v>0.05315369030897948</v>
+      </c>
+      <c r="H64">
+        <v>-0.09186234522793758</v>
+      </c>
+      <c r="I64">
+        <v>0.06890945954863319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02492547928879273</v>
+        <v>0.02176476344379806</v>
       </c>
       <c r="C65">
-        <v>0.01554689931498425</v>
+        <v>-0.04289936220951838</v>
       </c>
       <c r="D65">
-        <v>0.1182301187072075</v>
+        <v>0.1163649526908983</v>
       </c>
       <c r="E65">
-        <v>-0.005342138736934211</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04243177743380416</v>
+      </c>
+      <c r="F65">
+        <v>0.005068613456951854</v>
+      </c>
+      <c r="G65">
+        <v>0.02447306323238695</v>
+      </c>
+      <c r="H65">
+        <v>-0.0248618919114169</v>
+      </c>
+      <c r="I65">
+        <v>0.0554030740816942</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.01840468291219629</v>
+        <v>0.001224198897536586</v>
       </c>
       <c r="C66">
-        <v>0.06435090697609626</v>
+        <v>-0.0933388979517407</v>
       </c>
       <c r="D66">
-        <v>0.1197817545933284</v>
+        <v>0.1213346221439476</v>
       </c>
       <c r="E66">
-        <v>0.01822389577661945</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04070535455116387</v>
+      </c>
+      <c r="F66">
+        <v>0.008761349162830587</v>
+      </c>
+      <c r="G66">
+        <v>-0.01215128553216966</v>
+      </c>
+      <c r="H66">
+        <v>-0.05967380757647116</v>
+      </c>
+      <c r="I66">
+        <v>0.05461684381938044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02390185545053572</v>
+        <v>0.02472344249399648</v>
       </c>
       <c r="C67">
-        <v>0.01949849401559192</v>
+        <v>-0.03088408284994801</v>
       </c>
       <c r="D67">
-        <v>0.04439680253227948</v>
+        <v>0.03829132014853869</v>
       </c>
       <c r="E67">
-        <v>0.01564234083861477</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.008764570744600401</v>
+      </c>
+      <c r="F67">
+        <v>0.02692149235713744</v>
+      </c>
+      <c r="G67">
+        <v>-0.006638486392859163</v>
+      </c>
+      <c r="H67">
+        <v>-0.0657694149414577</v>
+      </c>
+      <c r="I67">
+        <v>0.01643958346178902</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2042548780427997</v>
+        <v>0.2730221412411937</v>
       </c>
       <c r="C68">
-        <v>-0.1570939193388513</v>
+        <v>0.07049829655441728</v>
       </c>
       <c r="D68">
-        <v>0.03213695264165484</v>
+        <v>0.02430312025905686</v>
       </c>
       <c r="E68">
-        <v>-0.007644182544759095</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.005430890701217614</v>
+      </c>
+      <c r="F68">
+        <v>-0.02451217169572149</v>
+      </c>
+      <c r="G68">
+        <v>-0.06990001067272536</v>
+      </c>
+      <c r="H68">
+        <v>0.04840484907546596</v>
+      </c>
+      <c r="I68">
+        <v>-0.07388513656402787</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.05669916757490065</v>
+        <v>0.02042225997575013</v>
       </c>
       <c r="C69">
-        <v>0.1146253922472267</v>
+        <v>-0.1182902922575316</v>
       </c>
       <c r="D69">
-        <v>0.08185004490470833</v>
+        <v>0.0340565101073849</v>
       </c>
       <c r="E69">
-        <v>-0.01620552517795293</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.009097585663193873</v>
+      </c>
+      <c r="F69">
+        <v>0.005862048850899769</v>
+      </c>
+      <c r="G69">
+        <v>0.02486163686031082</v>
+      </c>
+      <c r="H69">
+        <v>-0.04262700319532427</v>
+      </c>
+      <c r="I69">
+        <v>-0.0353745600317802</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2140572726487434</v>
+        <v>0.2744862454624983</v>
       </c>
       <c r="C71">
-        <v>-0.1805234661001731</v>
+        <v>0.08345279394630167</v>
       </c>
       <c r="D71">
-        <v>0.02079679527284975</v>
+        <v>0.01538214454358444</v>
       </c>
       <c r="E71">
-        <v>-0.01329960085977143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.001354950360197502</v>
+      </c>
+      <c r="F71">
+        <v>-0.01958375528089306</v>
+      </c>
+      <c r="G71">
+        <v>-0.03296108633933387</v>
+      </c>
+      <c r="H71">
+        <v>-0.02349253588227622</v>
+      </c>
+      <c r="I71">
+        <v>-0.08194145450840856</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1046653741384656</v>
+        <v>0.05685919794253781</v>
       </c>
       <c r="C72">
-        <v>0.07560899952784236</v>
+        <v>-0.1247568585749609</v>
       </c>
       <c r="D72">
-        <v>0.1071326488411496</v>
+        <v>0.05676928001450684</v>
       </c>
       <c r="E72">
-        <v>0.04779469201430175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.06965351072973426</v>
+      </c>
+      <c r="F72">
+        <v>0.02793768104039587</v>
+      </c>
+      <c r="G72">
+        <v>0.035964736724633</v>
+      </c>
+      <c r="H72">
+        <v>-0.05219276081697743</v>
+      </c>
+      <c r="I72">
+        <v>0.06684644560218497</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1722097330965711</v>
+        <v>0.1420325732825306</v>
       </c>
       <c r="C73">
-        <v>0.0645033291583051</v>
+        <v>-0.1441961610810538</v>
       </c>
       <c r="D73">
-        <v>0.2716498013417447</v>
+        <v>0.1031014668277662</v>
       </c>
       <c r="E73">
-        <v>0.2470733002141252</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2945059497386331</v>
+      </c>
+      <c r="F73">
+        <v>0.3158538023392769</v>
+      </c>
+      <c r="G73">
+        <v>0.4086880661818432</v>
+      </c>
+      <c r="H73">
+        <v>0.1575345527422317</v>
+      </c>
+      <c r="I73">
+        <v>-5.148095810847194e-05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.107531855414286</v>
+        <v>0.05062838713298373</v>
       </c>
       <c r="C74">
-        <v>0.1150704014694931</v>
+        <v>-0.1458153174156843</v>
       </c>
       <c r="D74">
-        <v>-0.01676431741833059</v>
+        <v>-0.04019316106203091</v>
       </c>
       <c r="E74">
-        <v>-0.04157157867133095</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0100426891921372</v>
+      </c>
+      <c r="F74">
+        <v>-0.03755466510524656</v>
+      </c>
+      <c r="G74">
+        <v>0.006835337271275548</v>
+      </c>
+      <c r="H74">
+        <v>0.01085566635114742</v>
+      </c>
+      <c r="I74">
+        <v>-0.06863870921628938</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2336861079239475</v>
+        <v>0.1105423148698871</v>
       </c>
       <c r="C75">
-        <v>0.1998640602008387</v>
+        <v>-0.2683334224873958</v>
       </c>
       <c r="D75">
-        <v>-0.1032459786862889</v>
+        <v>-0.1381951078663316</v>
       </c>
       <c r="E75">
-        <v>0.0286129382214132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08699762320784656</v>
+      </c>
+      <c r="F75">
+        <v>0.03130871550953661</v>
+      </c>
+      <c r="G75">
+        <v>-0.09123411646217319</v>
+      </c>
+      <c r="H75">
+        <v>-0.01903441356604529</v>
+      </c>
+      <c r="I75">
+        <v>-0.04993079605690072</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1392473057317137</v>
+        <v>0.06304437514934874</v>
       </c>
       <c r="C76">
-        <v>0.138861511439215</v>
+        <v>-0.1818909660339976</v>
       </c>
       <c r="D76">
-        <v>0.01641608604195581</v>
+        <v>-0.03671367185446939</v>
       </c>
       <c r="E76">
-        <v>-0.01052302885933943</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02144309658379083</v>
+      </c>
+      <c r="F76">
+        <v>-0.004488273756777002</v>
+      </c>
+      <c r="G76">
+        <v>-0.03518505646106302</v>
+      </c>
+      <c r="H76">
+        <v>-0.03579420577244256</v>
+      </c>
+      <c r="I76">
+        <v>-0.04148616900586633</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02100556339914481</v>
+        <v>0.002442245072715001</v>
       </c>
       <c r="C77">
-        <v>0.06793766414694247</v>
+        <v>-0.1076029632174681</v>
       </c>
       <c r="D77">
-        <v>0.006910163811761898</v>
+        <v>0.3121742190886166</v>
       </c>
       <c r="E77">
-        <v>-0.2228494266046847</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8412551304338962</v>
+      </c>
+      <c r="F77">
+        <v>0.228419735630889</v>
+      </c>
+      <c r="G77">
+        <v>0.2106911527585815</v>
+      </c>
+      <c r="H77">
+        <v>0.1484056211832924</v>
+      </c>
+      <c r="I77">
+        <v>-0.01205073846806865</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02548911284459355</v>
+        <v>0.01703213230909108</v>
       </c>
       <c r="C78">
-        <v>0.06831554073419677</v>
+        <v>-0.0898840334138105</v>
       </c>
       <c r="D78">
-        <v>0.1534660484666228</v>
+        <v>0.1207997288384543</v>
       </c>
       <c r="E78">
-        <v>-0.04433203218895416</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06781476521017976</v>
+      </c>
+      <c r="F78">
+        <v>-0.04297591694534243</v>
+      </c>
+      <c r="G78">
+        <v>-0.03064701413821924</v>
+      </c>
+      <c r="H78">
+        <v>-0.02404659119868156</v>
+      </c>
+      <c r="I78">
+        <v>-0.1156578494921625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09569993919124128</v>
+        <v>0.0361091655433454</v>
       </c>
       <c r="C79">
-        <v>0.1756142004143832</v>
+        <v>-0.1919472441900843</v>
       </c>
       <c r="D79">
-        <v>-0.09634919836799241</v>
+        <v>-0.07223908885340465</v>
       </c>
       <c r="E79">
-        <v>-0.8039942009788287</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05078325310432291</v>
+      </c>
+      <c r="F79">
+        <v>-0.7741235409383133</v>
+      </c>
+      <c r="G79">
+        <v>0.394326353927032</v>
+      </c>
+      <c r="H79">
+        <v>0.3194595740333371</v>
+      </c>
+      <c r="I79">
+        <v>0.09312433061415135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.004647464679758482</v>
+        <v>0.005467823187918448</v>
       </c>
       <c r="C80">
-        <v>0.04621441500122452</v>
+        <v>-0.04637494581901653</v>
       </c>
       <c r="D80">
-        <v>0.05178178155500505</v>
+        <v>0.04195589503770945</v>
       </c>
       <c r="E80">
-        <v>0.008070358319339822</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04335528633353099</v>
+      </c>
+      <c r="F80">
+        <v>-0.005764108990097105</v>
+      </c>
+      <c r="G80">
+        <v>-0.01556561274636621</v>
+      </c>
+      <c r="H80">
+        <v>-0.02801821121676182</v>
+      </c>
+      <c r="I80">
+        <v>-0.07174307485115584</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1189122195839485</v>
+        <v>0.044731623164326</v>
       </c>
       <c r="C81">
-        <v>0.1349117556068669</v>
+        <v>-0.1680286189714634</v>
       </c>
       <c r="D81">
-        <v>-0.06998838631784098</v>
+        <v>-0.07762247319085168</v>
       </c>
       <c r="E81">
-        <v>-0.06062850561307637</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04881036903635055</v>
+      </c>
+      <c r="F81">
+        <v>-0.06469394904487245</v>
+      </c>
+      <c r="G81">
+        <v>-0.04217200865155048</v>
+      </c>
+      <c r="H81">
+        <v>-0.08211757224140874</v>
+      </c>
+      <c r="I81">
+        <v>-0.07090517182062105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2516733123293633</v>
+        <v>0.09260287387265748</v>
       </c>
       <c r="C82">
-        <v>0.2989170593672533</v>
+        <v>-0.3236580499303344</v>
       </c>
       <c r="D82">
-        <v>-0.2004296417804199</v>
+        <v>-0.2375326211076652</v>
       </c>
       <c r="E82">
-        <v>0.1401457183065353</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.0550289345860537</v>
+      </c>
+      <c r="F82">
+        <v>0.1054342965037247</v>
+      </c>
+      <c r="G82">
+        <v>-0.08976989153674515</v>
+      </c>
+      <c r="H82">
+        <v>-0.1173291487973031</v>
+      </c>
+      <c r="I82">
+        <v>-0.03788105206075904</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.008298339100397338</v>
+        <v>-0.0140587999627083</v>
       </c>
       <c r="C83">
-        <v>0.05104938440544388</v>
+        <v>-0.02600976110537086</v>
       </c>
       <c r="D83">
-        <v>0.009231559319936447</v>
+        <v>0.02999758634238237</v>
       </c>
       <c r="E83">
-        <v>-0.05881732804469278</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.07920121415035593</v>
+      </c>
+      <c r="F83">
+        <v>-0.07299521925971079</v>
+      </c>
+      <c r="G83">
+        <v>-0.0393140420214088</v>
+      </c>
+      <c r="H83">
+        <v>-0.09052012558678893</v>
+      </c>
+      <c r="I83">
+        <v>-0.7261211939334979</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0004950305170576734</v>
+        <v>-0.0008690215597066831</v>
       </c>
       <c r="C84">
-        <v>-0.001663512618413156</v>
+        <v>-0.01944675143306328</v>
       </c>
       <c r="D84">
-        <v>0.004857070077480044</v>
+        <v>0.0474094317017465</v>
       </c>
       <c r="E84">
-        <v>-0.000283406981943871</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.002543812214267827</v>
+      </c>
+      <c r="F84">
+        <v>-0.02812767565483849</v>
+      </c>
+      <c r="G84">
+        <v>-0.05175430678026992</v>
+      </c>
+      <c r="H84">
+        <v>-0.01438780185643286</v>
+      </c>
+      <c r="I84">
+        <v>0.05995639936224562</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1410013577365942</v>
+        <v>0.05897583303113799</v>
       </c>
       <c r="C85">
-        <v>0.1392380968288217</v>
+        <v>-0.1835509279779269</v>
       </c>
       <c r="D85">
-        <v>-0.03836289722954376</v>
+        <v>-0.09067066366444092</v>
       </c>
       <c r="E85">
-        <v>-0.02623388385602382</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.003092036094941382</v>
+      </c>
+      <c r="F85">
+        <v>-0.07511367885537092</v>
+      </c>
+      <c r="G85">
+        <v>-0.01958659420965225</v>
+      </c>
+      <c r="H85">
+        <v>-0.001980617263621563</v>
+      </c>
+      <c r="I85">
+        <v>-0.04329736857086495</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01337923917924867</v>
+        <v>0.01314949892338769</v>
       </c>
       <c r="C86">
-        <v>0.01478267732709539</v>
+        <v>-0.03272986839518039</v>
       </c>
       <c r="D86">
-        <v>0.0760252384653866</v>
+        <v>0.0986917855548291</v>
       </c>
       <c r="E86">
-        <v>-0.04941990805084097</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02370223206525305</v>
+      </c>
+      <c r="F86">
+        <v>0.0004832997604760561</v>
+      </c>
+      <c r="G86">
+        <v>0.01080357945289513</v>
+      </c>
+      <c r="H86">
+        <v>-0.02354025212220677</v>
+      </c>
+      <c r="I86">
+        <v>-0.05254613315023161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01936820750116367</v>
+        <v>0.01217074316888346</v>
       </c>
       <c r="C87">
-        <v>0.02405236234711337</v>
+        <v>-0.05753003241789312</v>
       </c>
       <c r="D87">
-        <v>0.1338032438601119</v>
+        <v>0.1442917225978295</v>
       </c>
       <c r="E87">
-        <v>-0.05314102899032609</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01160986830601936</v>
+      </c>
+      <c r="F87">
+        <v>-0.04242132787421566</v>
+      </c>
+      <c r="G87">
+        <v>-0.05531996724915013</v>
+      </c>
+      <c r="H87">
+        <v>-0.03124263497093923</v>
+      </c>
+      <c r="I87">
+        <v>-0.01884238455109928</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05310112023267841</v>
+        <v>0.03487139467383189</v>
       </c>
       <c r="C88">
-        <v>0.04512721343620946</v>
+        <v>-0.06665745720939413</v>
       </c>
       <c r="D88">
-        <v>0.02722952071865349</v>
+        <v>0.01221706533499426</v>
       </c>
       <c r="E88">
-        <v>-0.03009354716785639</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02661675341307266</v>
+      </c>
+      <c r="F88">
+        <v>-0.01894634604867117</v>
+      </c>
+      <c r="G88">
+        <v>0.01095107640159869</v>
+      </c>
+      <c r="H88">
+        <v>-0.0172972426636753</v>
+      </c>
+      <c r="I88">
+        <v>0.01179619316017442</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3204748828897509</v>
+        <v>0.4067152840416828</v>
       </c>
       <c r="C89">
-        <v>-0.326522065708287</v>
+        <v>0.1582561182199481</v>
       </c>
       <c r="D89">
-        <v>0.01427265172081831</v>
+        <v>0.02595064648989871</v>
       </c>
       <c r="E89">
-        <v>-0.09549301899780928</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.0555465089565217</v>
+      </c>
+      <c r="F89">
+        <v>-0.06962545045152094</v>
+      </c>
+      <c r="G89">
+        <v>-0.04141478057005856</v>
+      </c>
+      <c r="H89">
+        <v>-0.09940133028798931</v>
+      </c>
+      <c r="I89">
+        <v>0.09552223106106382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2553249563323077</v>
+        <v>0.3185404299834972</v>
       </c>
       <c r="C90">
-        <v>-0.2391178262053139</v>
+        <v>0.1058018870288441</v>
       </c>
       <c r="D90">
-        <v>0.0368179233188612</v>
+        <v>0.0329315533116435</v>
       </c>
       <c r="E90">
-        <v>0.008276247327456104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01215771208078483</v>
+      </c>
+      <c r="F90">
+        <v>0.008233098713886859</v>
+      </c>
+      <c r="G90">
+        <v>-0.05893713346938743</v>
+      </c>
+      <c r="H90">
+        <v>-0.00153551185509225</v>
+      </c>
+      <c r="I90">
+        <v>-0.07403673895640051</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.155554325528928</v>
+        <v>0.06937823560937252</v>
       </c>
       <c r="C91">
-        <v>0.1884569071541066</v>
+        <v>-0.2092103581629059</v>
       </c>
       <c r="D91">
-        <v>-0.09854509223002363</v>
+        <v>-0.1118765779355231</v>
       </c>
       <c r="E91">
-        <v>-0.09177808736409575</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0600042004467161</v>
+      </c>
+      <c r="F91">
+        <v>-0.07237580809885959</v>
+      </c>
+      <c r="G91">
+        <v>-0.004473385497228003</v>
+      </c>
+      <c r="H91">
+        <v>-0.003985113601489682</v>
+      </c>
+      <c r="I91">
+        <v>-0.07419591221863353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2415488466270219</v>
+        <v>0.3372351816121207</v>
       </c>
       <c r="C92">
-        <v>-0.2609833582460446</v>
+        <v>0.1440813282645241</v>
       </c>
       <c r="D92">
-        <v>-0.05117285241820899</v>
+        <v>0.0006190891592108295</v>
       </c>
       <c r="E92">
-        <v>-0.04987556080359833</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.0649478966591728</v>
+      </c>
+      <c r="F92">
+        <v>-0.0291424108532545</v>
+      </c>
+      <c r="G92">
+        <v>-0.02608010015365201</v>
+      </c>
+      <c r="H92">
+        <v>-0.01772796776059342</v>
+      </c>
+      <c r="I92">
+        <v>0.2445437475311094</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2803376092016428</v>
+        <v>0.3347287356309687</v>
       </c>
       <c r="C93">
-        <v>-0.2505845834741988</v>
+        <v>0.1179198277539634</v>
       </c>
       <c r="D93">
-        <v>0.01481380100727151</v>
+        <v>-0.01915439997219494</v>
       </c>
       <c r="E93">
-        <v>-0.004226421461484407</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02489954249389002</v>
+      </c>
+      <c r="F93">
+        <v>-0.008189620707306252</v>
+      </c>
+      <c r="G93">
+        <v>0.02007405463360296</v>
+      </c>
+      <c r="H93">
+        <v>0.002151411354164275</v>
+      </c>
+      <c r="I93">
+        <v>-0.02330196978350691</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2955310741819649</v>
+        <v>0.1295590009885468</v>
       </c>
       <c r="C94">
-        <v>0.2741276443078864</v>
+        <v>-0.3516795229935262</v>
       </c>
       <c r="D94">
-        <v>-0.3498279109160726</v>
+        <v>-0.362758032867812</v>
       </c>
       <c r="E94">
-        <v>0.2120573518339882</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06129248592607829</v>
+      </c>
+      <c r="F94">
+        <v>0.1077933025240884</v>
+      </c>
+      <c r="G94">
+        <v>-0.3207909746975656</v>
+      </c>
+      <c r="H94">
+        <v>0.05197299840941575</v>
+      </c>
+      <c r="I94">
+        <v>0.2173946057241873</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.0145955281796304</v>
+        <v>0.01928127153809844</v>
       </c>
       <c r="C95">
-        <v>0.03709929095461847</v>
+        <v>-0.06299529357055429</v>
       </c>
       <c r="D95">
-        <v>0.02243574781496733</v>
+        <v>0.1098233334917064</v>
       </c>
       <c r="E95">
-        <v>-0.08692650734213203</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1546638530422843</v>
+      </c>
+      <c r="F95">
+        <v>0.01315152327622672</v>
+      </c>
+      <c r="G95">
+        <v>0.08012950569577144</v>
+      </c>
+      <c r="H95">
+        <v>-0.3465862076523326</v>
+      </c>
+      <c r="I95">
+        <v>0.3594320364022293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001188169962133335</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0005455046043743832</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0008078154568239459</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003475443082784018</v>
+      </c>
+      <c r="F97">
+        <v>-0.0002179491073945471</v>
+      </c>
+      <c r="G97">
+        <v>-0.0003168109269552426</v>
+      </c>
+      <c r="H97">
+        <v>-0.003113278374161563</v>
+      </c>
+      <c r="I97">
+        <v>0.004130462043083331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1435423739428212</v>
+        <v>0.1156884388089614</v>
       </c>
       <c r="C98">
-        <v>0.08624971328140317</v>
+        <v>-0.1498828120083433</v>
       </c>
       <c r="D98">
-        <v>0.1556932572968484</v>
+        <v>0.06902527712355648</v>
       </c>
       <c r="E98">
-        <v>0.1938858707725021</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2033181037204309</v>
+      </c>
+      <c r="F98">
+        <v>0.2457330278675737</v>
+      </c>
+      <c r="G98">
+        <v>0.2817761131942112</v>
+      </c>
+      <c r="H98">
+        <v>0.1751274741550969</v>
+      </c>
+      <c r="I98">
+        <v>-0.0229330255825193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001136603638159867</v>
+        <v>0.001436467726797019</v>
       </c>
       <c r="C101">
-        <v>0.02013061172951048</v>
+        <v>-0.03518520632479989</v>
       </c>
       <c r="D101">
-        <v>0.09660484310134496</v>
+        <v>0.1045152348176322</v>
       </c>
       <c r="E101">
-        <v>-0.01693345158631581</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05560494620279711</v>
+      </c>
+      <c r="F101">
+        <v>-0.04132402869897913</v>
+      </c>
+      <c r="G101">
+        <v>0.001355952794053086</v>
+      </c>
+      <c r="H101">
+        <v>-0.1322514598337196</v>
+      </c>
+      <c r="I101">
+        <v>0.01493018030151968</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1059194985568566</v>
+        <v>0.02931946874545725</v>
       </c>
       <c r="C102">
-        <v>0.1587198569848627</v>
+        <v>-0.1499015051452416</v>
       </c>
       <c r="D102">
-        <v>-0.06574574073653792</v>
+        <v>-0.0983530753234471</v>
       </c>
       <c r="E102">
-        <v>0.05240961047229998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03436954042261512</v>
+      </c>
+      <c r="F102">
+        <v>0.06265672762982843</v>
+      </c>
+      <c r="G102">
+        <v>0.007902374710049061</v>
+      </c>
+      <c r="H102">
+        <v>-0.05211637486405251</v>
+      </c>
+      <c r="I102">
+        <v>-0.02276248623529573</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
